--- a/instances/instance3.xlsx
+++ b/instances/instance3.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10612"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gstfrr/PycharmProjects/CrewSchedulingAndRecovery/instances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F71774C-660B-A847-8102-505AC617B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1210AD9C-ECEC-8448-80BD-080DA2B1B722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="19500" xr2:uid="{D8D3411D-76E6-224C-9079-3669CED563B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Crew" sheetId="1" r:id="rId1"/>
-    <sheet name="Flights" sheetId="2" r:id="rId2"/>
+    <sheet name="Flights" sheetId="2" r:id="rId1"/>
+    <sheet name="Crew" sheetId="1" r:id="rId2"/>
     <sheet name="Parameters" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crew!$A$1:$A$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Flights!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Crew!$A$1:$A$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Flights!$B$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Parameters!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
   <si>
     <t>John</t>
   </si>
@@ -534,109 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C2A3D-3DCD-C44F-937A-AFA128694646}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A4" xr:uid="{AB8C2A3D-3DCD-C44F-937A-AFA128694646}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
-      <sortCondition ref="A1:A5"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98965418-D9AF-6440-9451-66AA9203570F}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,10 +855,10 @@
         <v>15</v>
       </c>
       <c r="D14" s="6">
-        <v>45444.291666666664</v>
+        <v>45445.291666666664</v>
       </c>
       <c r="E14" s="6">
-        <v>45444.375</v>
+        <v>45445.375</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
@@ -976,10 +878,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="6">
-        <v>45444.416666666664</v>
+        <v>45445.416666666664</v>
       </c>
       <c r="E15" s="6">
-        <v>45444.5</v>
+        <v>45445.5</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
@@ -999,10 +901,10 @@
         <v>29</v>
       </c>
       <c r="D16" s="6">
-        <v>45444.583333333336</v>
+        <v>45445.583333333336</v>
       </c>
       <c r="E16" s="6">
-        <v>45444.666666666664</v>
+        <v>45445.666666666664</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
@@ -1022,10 +924,10 @@
         <v>31</v>
       </c>
       <c r="D17" s="6">
-        <v>45444.708333333336</v>
+        <v>45445.708333333336</v>
       </c>
       <c r="E17" s="6">
-        <v>45444.791666666664</v>
+        <v>45445.791666666664</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
@@ -1183,10 +1085,10 @@
         <v>29</v>
       </c>
       <c r="D24" s="6">
-        <v>45445.291666666664</v>
+        <v>45446.291666666664</v>
       </c>
       <c r="E24" s="6">
-        <v>45445.375</v>
+        <v>45446.375</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
@@ -1206,10 +1108,10 @@
         <v>16</v>
       </c>
       <c r="D25" s="6">
-        <v>45445.416666666664</v>
+        <v>45446.416666666664</v>
       </c>
       <c r="E25" s="6">
-        <v>45445.5</v>
+        <v>45446.5</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
@@ -1229,10 +1131,10 @@
         <v>26</v>
       </c>
       <c r="D26" s="6">
-        <v>45445.25</v>
+        <v>45446.25</v>
       </c>
       <c r="E26" s="6">
-        <v>45445.333333333336</v>
+        <v>45446.333333333336</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
@@ -1252,10 +1154,10 @@
         <v>17</v>
       </c>
       <c r="D27" s="6">
-        <v>45445.375</v>
+        <v>45446.375</v>
       </c>
       <c r="E27" s="6">
-        <v>45445.458333333336</v>
+        <v>45446.458333333336</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
@@ -1275,10 +1177,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="6">
-        <v>45445.291666666664</v>
+        <v>45446.291666666664</v>
       </c>
       <c r="E28" s="6">
-        <v>45445.375</v>
+        <v>45446.375</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
@@ -1298,10 +1200,10 @@
         <v>25</v>
       </c>
       <c r="D29" s="6">
-        <v>45445.416666666664</v>
+        <v>45446.416666666664</v>
       </c>
       <c r="E29" s="6">
-        <v>45445.5</v>
+        <v>45446.5</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
@@ -1321,10 +1223,10 @@
         <v>30</v>
       </c>
       <c r="D30" s="6">
-        <v>45445.25</v>
+        <v>45446.25</v>
       </c>
       <c r="E30" s="6">
-        <v>45445.333333333336</v>
+        <v>45446.333333333336</v>
       </c>
       <c r="F30" s="7">
         <f t="shared" si="0"/>
@@ -1344,10 +1246,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="6">
-        <v>45445.375</v>
+        <v>45446.375</v>
       </c>
       <c r="E31" s="6">
-        <v>45445.458333333336</v>
+        <v>45446.458333333336</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
@@ -1367,10 +1269,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="6">
-        <v>45446.25</v>
+        <v>45447.25</v>
       </c>
       <c r="E32" s="6">
-        <v>45446.333333333336</v>
+        <v>45447.333333333336</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
@@ -1390,10 +1292,10 @@
         <v>16</v>
       </c>
       <c r="D33" s="6">
-        <v>45446.375</v>
+        <v>45447.375</v>
       </c>
       <c r="E33" s="6">
-        <v>45446.458333333336</v>
+        <v>45447.458333333336</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
@@ -1413,10 +1315,10 @@
         <v>28</v>
       </c>
       <c r="D34" s="6">
-        <v>45446.291666666664</v>
+        <v>45447.291666666664</v>
       </c>
       <c r="E34" s="6">
-        <v>45446.375</v>
+        <v>45447.375</v>
       </c>
       <c r="F34" s="7">
         <f t="shared" si="0"/>
@@ -1436,10 +1338,10 @@
         <v>25</v>
       </c>
       <c r="D35" s="6">
-        <v>45446.416666666664</v>
+        <v>45447.416666666664</v>
       </c>
       <c r="E35" s="6">
-        <v>45446.5</v>
+        <v>45447.5</v>
       </c>
       <c r="F35" s="7">
         <f t="shared" si="0"/>
@@ -1459,10 +1361,10 @@
         <v>27</v>
       </c>
       <c r="D36" s="6">
-        <v>45446.25</v>
+        <v>45447.25</v>
       </c>
       <c r="E36" s="6">
-        <v>45446.333333333336</v>
+        <v>45447.333333333336</v>
       </c>
       <c r="F36" s="7">
         <f t="shared" si="0"/>
@@ -1482,10 +1384,10 @@
         <v>29</v>
       </c>
       <c r="D37" s="6">
-        <v>45446.375</v>
+        <v>45447.375</v>
       </c>
       <c r="E37" s="6">
-        <v>45446.458333333336</v>
+        <v>45447.458333333336</v>
       </c>
       <c r="F37" s="7">
         <f t="shared" si="0"/>
@@ -1505,10 +1407,10 @@
         <v>16</v>
       </c>
       <c r="D38" s="6">
-        <v>45446.291666666664</v>
+        <v>45447.291666666664</v>
       </c>
       <c r="E38" s="6">
-        <v>45446.375</v>
+        <v>45447.375</v>
       </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
@@ -1528,10 +1430,10 @@
         <v>31</v>
       </c>
       <c r="D39" s="6">
-        <v>45446.416666666664</v>
+        <v>45447.416666666664</v>
       </c>
       <c r="E39" s="6">
-        <v>45446.5</v>
+        <v>45447.5</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="0"/>
@@ -1551,10 +1453,10 @@
         <v>17</v>
       </c>
       <c r="D40" s="6">
-        <v>45446.25</v>
+        <v>45447.25</v>
       </c>
       <c r="E40" s="6">
-        <v>45446.333333333336</v>
+        <v>45447.333333333336</v>
       </c>
       <c r="F40" s="7">
         <f t="shared" si="0"/>
@@ -1574,10 +1476,10 @@
         <v>30</v>
       </c>
       <c r="D41" s="6">
-        <v>45446.375</v>
+        <v>45447.375</v>
       </c>
       <c r="E41" s="6">
-        <v>45446.458333333336</v>
+        <v>45447.458333333336</v>
       </c>
       <c r="F41" s="7">
         <f t="shared" si="0"/>
@@ -1597,10 +1499,10 @@
         <v>26</v>
       </c>
       <c r="D42" s="6">
-        <v>45446.25</v>
+        <v>45448.25</v>
       </c>
       <c r="E42" s="6">
-        <v>45446.333333333336</v>
+        <v>45448.333333333336</v>
       </c>
       <c r="F42" s="7">
         <f t="shared" si="0"/>
@@ -1620,10 +1522,10 @@
         <v>15</v>
       </c>
       <c r="D43" s="6">
-        <v>45446.375</v>
+        <v>45448.375</v>
       </c>
       <c r="E43" s="6">
-        <v>45446.458333333336</v>
+        <v>45448.458333333336</v>
       </c>
       <c r="F43" s="7">
         <f t="shared" si="0"/>
@@ -1643,10 +1545,10 @@
         <v>25</v>
       </c>
       <c r="D44" s="6">
-        <v>45446.291666666664</v>
+        <v>45448.291666666664</v>
       </c>
       <c r="E44" s="6">
-        <v>45446.375</v>
+        <v>45448.375</v>
       </c>
       <c r="F44" s="7">
         <f t="shared" si="0"/>
@@ -1666,10 +1568,10 @@
         <v>29</v>
       </c>
       <c r="D45" s="6">
-        <v>45446.416666666664</v>
+        <v>45448.416666666664</v>
       </c>
       <c r="E45" s="6">
-        <v>45446.5</v>
+        <v>45448.5</v>
       </c>
       <c r="F45" s="7">
         <f t="shared" si="0"/>
@@ -1689,10 +1591,10 @@
         <v>28</v>
       </c>
       <c r="D46" s="6">
-        <v>45446.25</v>
+        <v>45448.25</v>
       </c>
       <c r="E46" s="6">
-        <v>45446.333333333336</v>
+        <v>45448.333333333336</v>
       </c>
       <c r="F46" s="7">
         <f t="shared" si="0"/>
@@ -1702,18 +1604,48 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="6">
+        <v>45448.375</v>
+      </c>
+      <c r="E47" s="6">
+        <v>45448.458333333336</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3333333335758653E-2</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="6">
+        <v>45448.291666666664</v>
+      </c>
+      <c r="E48" s="6">
+        <v>45448.375</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3333333335758653E-2</v>
+      </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -1727,6 +1659,104 @@
     </row>
   </sheetData>
   <autoFilter ref="B1:E12" xr:uid="{98965418-D9AF-6440-9451-66AA9203570F}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8C2A3D-3DCD-C44F-937A-AFA128694646}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A4" xr:uid="{AB8C2A3D-3DCD-C44F-937A-AFA128694646}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
+      <sortCondition ref="A1:A5"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
